--- a/data/financial_statements/sofp/SIVB.xlsx
+++ b/data/financial_statements/sofp/SIVB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,1983 +578,2031 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>13803000000</v>
+      </c>
+      <c r="C2">
         <v>13968000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15398000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>20606000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>14586000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18940000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>23959000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>21254860000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>17675000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>15687780000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14202110000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9561448000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6781783000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6946196000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9020925000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>7066883000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3571539000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3819141000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2712101000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2619384000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2923075000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3555571000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3854244000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3795679000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2545750000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2521319000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1854457000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1868512000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1503257000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1674145000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2625550000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1308003000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1796062000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1872537000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2649831000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3862464000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1538779000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1942744000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>873251000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1519249000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>90499000000</v>
+      </c>
+      <c r="C3">
         <v>89063000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>88585000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>91938000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>82231000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>82103000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>76967000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>72722390000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>65614000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>55905690000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>52580490000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>47039630000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>41386730000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>39291850000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>39393690000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>36878080000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>32580180000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>32134260000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>29406010000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>27919560000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>26650610000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>26345650000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>25638340000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>24655780000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>22893020000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>22076200000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>21099050000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>19921520000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>18737420000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>17371590000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>17270680000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>16342670000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>16568190000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>14267620000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>14343610000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>15031360000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>12767390000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>12040420000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>10789490000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>10606340000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>394000000</v>
+      </c>
+      <c r="C4">
         <v>695000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>599000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>585000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>583000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>559000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>196000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>179674000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>176000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>173477000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>169313000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>154780000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>161876000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>146713000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>141888000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>139003000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>129213000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>121890000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>117603000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>127054000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>128682000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>122826000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>121947000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>122304000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>120683000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>115014000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>110485000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>108570000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>102625000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>94652000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>88284000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>82724000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>79845000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>74375000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>71465000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>66123000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>67485000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>65385000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>65644000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>65713000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>120054000000</v>
+      </c>
+      <c r="C5">
         <v>122592000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>124682000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>127303000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>127959000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>107834000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>85811000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>69008850000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>49307000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>40433910000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>32581310000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>27422950000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>29071690000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>28424030000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>23888830000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>22785330000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>24218590000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>25883580000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>26344130000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>25454180000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>24435170000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>24285810000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>22640090000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>21635250000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>21669960000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>21082820000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>21923110000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>23543810000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>25846660000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>24264740000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>22877160000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>23270590000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>22689840000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>21699010000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>18893950000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>14613550000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>13582320000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>11635050000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>11298770000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>12123950000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>511000000</v>
+      </c>
+      <c r="C6">
         <v>517000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>523000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>529000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>535000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>500000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>200000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>202010000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>204000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>183203000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>184549000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>185895000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>187240000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>190111000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>192981000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>193219000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>576000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>614000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>592000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>643000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>660000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>375000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>343000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>303000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>381000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>332000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>334000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>296000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>178532000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>156347000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>164659000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>120959000000</v>
+      </c>
+      <c r="C8">
         <v>123455000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>125499000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>128115000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>128764000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>108581000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>86207000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>69390530000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>49687000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>40790590000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>32935180000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>27763620000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>29420810000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>28760850000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>24223700000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>23117550000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>24347800000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>26005470000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>26461740000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>25581230000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>24563850000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>24408640000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>22762040000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>21757560000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>21790640000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>21197840000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>22033600000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>23652380000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>25949280000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>24359390000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>22965440000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>23353320000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>22769680000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>21773390000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>18965410000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>14679680000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>13649800000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>11700440000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>11364410000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>12189660000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>211793000000</v>
+      </c>
+      <c r="C9">
         <v>212867000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>214389000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>220355000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>212001000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>190996000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>163399000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>142346600000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>115511000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>96916770000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>85730980000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>75009640000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>71004910000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>68231230000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>63773740000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>60160290000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>56927980000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>58139730000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>55867750000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>53500790000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>51214470000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>50754290000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>48400380000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>46413340000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>44683660000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>43274040000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>43132650000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>43573900000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>44686700000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>41730980000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>40236120000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>39695990000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>39337870000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>36041010000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>33309020000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>29711040000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>26417190000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>23740860000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>22153900000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>22796000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>13565000000</v>
+      </c>
+      <c r="C10">
         <v>13552000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3703000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>99000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>71000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>97000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>34000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>38434000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>19068000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>50924000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3138162000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>17430000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>18898000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>24252000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>14455000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>631412000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2631252000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>417246000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1102140000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1033730000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>4840000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>470000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5163000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>512668000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2421000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>503219000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>774900000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>3756000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>2537000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>77766000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>7781000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>6630000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>4910000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>4810000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>5080000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5580000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>5400000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>7460000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>173109000000</v>
+      </c>
+      <c r="C11">
         <v>176819000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>187945000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>198134000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>189203000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>171182000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>145838000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>124150100000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>101982000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>84773020000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>74505770000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>61911960000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>61757810000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>59542880000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>55610540000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>52327200000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>49328900000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>48596110000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>48887300000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>45936530000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>44254070000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>44812030000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>42465290000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>41079700000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>38979870000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>38189410000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>37596570000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>38759720000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>39142780000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>37049420000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>35626960000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>33851570000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>34343500000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>31123130000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>28352550000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>25476900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>22472980000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>19996990000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>18690070000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>19309910000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>13552000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3703000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>99000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>198000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>97000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>34000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>38000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>72000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>32000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>75000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3172000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>62000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>186674000000</v>
+      </c>
+      <c r="C13">
         <v>190371000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>191648000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>198233000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>189274000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>171279000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>145872000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>124188500000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>102003000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>84792090000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>74556690000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>65050120000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>61775240000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>59561770000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>55634790000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>52341650000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>49960310000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>51227360000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>49304540000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>47038670000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>45287800000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>44816870000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>42465760000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>41084860000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>39492540000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>38191840000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>38099790000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>38759720000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>39917680000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>37053180000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>35629500000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>33929340000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>34351280000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>31129770000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>28357460000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>25481710000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>22478060000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>20002570000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>18695470000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>19317370000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>5370000000</v>
+      </c>
+      <c r="C14">
         <v>3797000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3744000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2945000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2881000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2315000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1834000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1338183000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>844000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>843430000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>843220000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>348076000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>347987000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>697227000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>696970000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>696715000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>696465000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>696217000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>695972000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>695731000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>695492000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>749618000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>749429000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>795465000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>795704000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>795971000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>796329000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>796570000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>796702000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>797211000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>802454000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>802917000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>451362000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>453764000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>454462000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>454770000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>455216000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>455744000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>455938000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>457194000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3041000000</v>
+      </c>
+      <c r="C15">
         <v>2889000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2721000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2817000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2587000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2645000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3449000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6411705000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3972000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3067221000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2623407000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2200953000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2041752000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1731222000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1540476000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1432928000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1006359000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1146109000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1062391000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1206660000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>911755000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>990498000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1145154000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>629555000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>618383000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>562912000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>602746000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>506571000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>639094000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>566370000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>614690000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>686501000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>483493000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>517462000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>559073000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>407573000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>404586000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>358905000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>330394000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>359380000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>8411000000</v>
+      </c>
+      <c r="C16">
         <v>6257000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6088000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5388000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5037000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4658000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5283000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7749888000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4816000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3910651000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3466627000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2549029000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2389739000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2428449000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2237446000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2129643000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1702824000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1842326000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1758363000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1902391000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1607247000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1740116000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1894583000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1425020000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1414087000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1358883000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1399075000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1303141000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1435796000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1363581000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1417144000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1489418000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>934855000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>971226000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1013535000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>862343000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>859802000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>814649000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>786332000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>816574000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>195498000000</v>
+      </c>
+      <c r="C17">
         <v>197057000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>198113000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>203995000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>195392000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>176327000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>151432000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>132225800000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>107078000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>88949390000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>78262670000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>67826420000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>64383820000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>62182770000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>58067560000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>54676460000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>51663140000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>53069690000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>51062900000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>48941060000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>46895050000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>46556990000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>44360340000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>42509880000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>40906620000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>39550720000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>39498860000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>40062860000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>41353470000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>38416750000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>37046640000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>35418760000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>35286140000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>32100990000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>29370990000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>26344060000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>23337860000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>20817220000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>19481810000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>20133940000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>5318000000</v>
+      </c>
+      <c r="C18">
         <v>5272000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5223000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5180000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5157000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5100000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2755000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2590576000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1585000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1548918000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1522728000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1489240000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1470071000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1441730000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1421565000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1394130000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1378438000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1360030000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1346586000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1326998000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1314377000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1294499000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1283485000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1268507000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1242741000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1219555000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1209821000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1192782000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1189032000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1171649000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1162508000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1140435000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1120350000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1107337000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1092582000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>642311000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>624256000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>607463000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>593328000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>570789000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>3646000000</v>
@@ -2455,19 +2617,19 @@
         <v>3646000000</v>
       </c>
       <c r="F19">
-        <v>2064000000</v>
+        <v>3646000000</v>
       </c>
       <c r="G19">
         <v>2064000000</v>
       </c>
       <c r="H19">
+        <v>2064000000</v>
+      </c>
+      <c r="I19">
         <v>1079333000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>340000000</v>
-      </c>
-      <c r="J19">
-        <v>340138000</v>
       </c>
       <c r="K19">
         <v>340138000</v>
@@ -2478,13 +2640,13 @@
       <c r="M19">
         <v>340138000</v>
       </c>
+      <c r="N19">
+        <v>340138000</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2495,14 +2657,14 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>54000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0</v>
-      </c>
-      <c r="J20">
-        <v>52000</v>
       </c>
       <c r="K20">
         <v>52000</v>
@@ -2523,7 +2685,7 @@
         <v>52000</v>
       </c>
       <c r="Q20">
-        <v>53000</v>
+        <v>52000</v>
       </c>
       <c r="R20">
         <v>53000</v>
@@ -2544,7 +2706,7 @@
         <v>53000</v>
       </c>
       <c r="X20">
-        <v>52000</v>
+        <v>53000</v>
       </c>
       <c r="Y20">
         <v>52000</v>
@@ -2562,7 +2724,7 @@
         <v>52000</v>
       </c>
       <c r="AD20">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="AE20">
         <v>51000</v>
@@ -2580,7 +2742,7 @@
         <v>51000</v>
       </c>
       <c r="AJ20">
-        <v>46000</v>
+        <v>51000</v>
       </c>
       <c r="AK20">
         <v>46000</v>
@@ -2589,628 +2751,646 @@
         <v>46000</v>
       </c>
       <c r="AM20">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="AN20">
         <v>45000</v>
       </c>
+      <c r="AO20">
+        <v>45000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>8951000000</v>
+      </c>
+      <c r="C21">
         <v>8676000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>8247000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>7914000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>7442000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7071000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6706000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6203969000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5672000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5283433000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4841720000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4612785000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4575601000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4312745000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4051194000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3963965000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3791838000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3672696000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3397879000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3160081000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2866837000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2749627000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2601007000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2477814000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2376331000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>2276865000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2165784000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2072820000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1993646000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1906135000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1824626000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1738483000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1649967000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1595825000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1532830000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1482033000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1390732000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1331975000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1264354000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1215770000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>12649000000</v>
+      </c>
+      <c r="C22">
         <v>11863000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>12272000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>12334000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>12590000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>12236000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9903000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>9041446000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>8093000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7627242000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7128175000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>6843083000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6280942000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>6048469000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5706175000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>5483823000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>5264843000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>5070045000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>4804841000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>4559724000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>4319415000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>4197298000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>4040035000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>3903456000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>3777037000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3723317000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3633793000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3511040000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3333231000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>3314228000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>3189472000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>4277231000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>4051734000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3940016000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3938024000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3366981000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3079328000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>2923644000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>2672095000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2662058000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>16295000000</v>
+      </c>
+      <c r="C23">
         <v>15509000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>15918000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>15980000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>16236000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>14300000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>11967000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>10120780000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8433000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7967380000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>7468313000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>7183221000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6621080000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6048469000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>5706175000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>5483823000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>5264843000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>5070045000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>4804841000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>4559724000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4319415000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>4197298000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>4040035000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>3903456000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3777037000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3723317000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>3633793000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>3511040000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3333231000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>3314228000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>3189472000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4277231000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>4051734000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>3940016000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>3938024000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3366981000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>3079328000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2923644000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2672095000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>2662058000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>211793000000</v>
+      </c>
+      <c r="C24">
         <v>212867000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>214389000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>220355000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>211308000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>190996000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>163399000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>142346600000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>115511000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>96916770000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>85730980000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>75009640000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>71004910000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>68231230000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>63773740000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>60160290000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>56927980000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>58139730000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>55867750000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>53500790000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>51214470000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>50754290000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>48400380000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>46413340000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>44683660000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>43274040000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>43132650000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>43573900000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>44686700000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>41730980000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>40236120000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>39695990000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>39337870000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>36041010000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>33309020000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>29711040000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>26417190000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>23740860000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>22153900000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>22796000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>59171000</v>
+      </c>
+      <c r="C25">
         <v>59104000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>59081000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>58840000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>58748000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>58677000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>54530000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>54002000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>51888000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>51788000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>51741000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>51490000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>51656000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>51556000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>51562000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>52322000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>52586000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>53250000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>53211000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>52922000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>52835000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>52724000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>52684000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>52428000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>52254000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>52061000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>52026000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>51701000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>51610000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>51489000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>51461000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>51095000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>50925000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>50821000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>50695000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>45935000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>45800000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>45608000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>45461000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>44970000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>383000</v>
+        <v>384000</v>
       </c>
       <c r="C26">
         <v>383000</v>
@@ -3222,16 +3402,16 @@
         <v>383000</v>
       </c>
       <c r="F26">
-        <v>367500</v>
+        <v>383000</v>
       </c>
       <c r="G26">
         <v>367500</v>
       </c>
       <c r="H26">
+        <v>367500</v>
+      </c>
+      <c r="I26">
         <v>357500</v>
-      </c>
-      <c r="I26">
-        <v>350000</v>
       </c>
       <c r="J26">
         <v>350000</v>
@@ -3245,370 +3425,382 @@
       <c r="M26">
         <v>350000</v>
       </c>
+      <c r="N26">
+        <v>350000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>15784000000</v>
+      </c>
+      <c r="C27">
         <v>15293000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>15753000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>15831000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>16074000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>14169000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>11767000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>9918771000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>8229000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>7784180000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>7283764000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>6997324000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6433842000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5858358000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5513195000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5290605000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5264844000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5070047000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4804844000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4559723000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>4319418000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>4197297000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>4040035000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3903457000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3777039000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3723316000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3633793000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3511039000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3333230000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3314227000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3189473000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4277230000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>4051730000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>3940018000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>3938023000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>3366980000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>3079328000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2923643000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2672094000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>2662059000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-8433000000</v>
+      </c>
+      <c r="C28">
         <v>3381000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-7951000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-17562000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-11507000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-16528000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-22091000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-19878677000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-16759000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-14812350000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-13283890000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-6041372000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-6371796000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-6248969000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-8323955000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-6370168000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-2875074000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-3122924000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-2016129000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-1923653000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-2227583000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-2805953000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-3104815000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-3000214000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1750046000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-1725348000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-1058128000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-1071942000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-706555000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-876934000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-1823096000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-505086000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-1344700000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-1418773000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-2195369000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-3407694000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-1083563000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-1487000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-417313000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-1062055000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>5370000000</v>
+      </c>
+      <c r="C29">
         <v>17349000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>7447000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3044000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3079000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2412000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1868000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1376183000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>916000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>875430000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>918220000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3520076000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>409987000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>697227000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>696970000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>696715000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>696465000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>696217000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>695972000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>695731000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>695492000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>749618000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>749429000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>795465000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>795704000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>795971000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>796329000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>796570000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>796702000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>797211000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>802454000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>802917000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>451362000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>453764000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>454462000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>454770000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>455216000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>455744000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>455938000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>457194000</v>
       </c>
     </row>
